--- a/biology/Médecine/Psoriasis_en_gouttes/Psoriasis_en_gouttes.xlsx
+++ b/biology/Médecine/Psoriasis_en_gouttes/Psoriasis_en_gouttes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le psoriasis en gouttes (également connu sous le nom de psoriasis éruptif) est un type de psoriasis qui se présente sous forme de petites (0,5 à 1,5 cm de diamètre) lésions sur la partie supérieure du tronc et les extrémités proximales ; on le trouve fréquemment chez les jeunes adultes[1] :410[2] :194.
-Le terme « gouttes » est utilisé pour décrire l'aspect en forme de goutte des lésions cutanées. Le psoriasis en gouttes est classiquement déclenché par une infection bactérienne, généralement une infection des voies respiratoires supérieures[3] :726.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le psoriasis en gouttes (également connu sous le nom de psoriasis éruptif) est un type de psoriasis qui se présente sous forme de petites (0,5 à 1,5 cm de diamètre) lésions sur la partie supérieure du tronc et les extrémités proximales ; on le trouve fréquemment chez les jeunes adultes :410 :194.
+Le terme « gouttes » est utilisé pour décrire l'aspect en forme de goutte des lésions cutanées. Le psoriasis en gouttes est classiquement déclenché par une infection bactérienne, généralement une infection des voies respiratoires supérieures :726.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En règle générale, le psoriasis en gouttes éclate après une infection de la gorge ou une angine streptococcique[4]. Au départ, lorsque l'infection de la gorge s'est dissipée, la personne peut se sentir bien pendant plusieurs semaines avant de remarquer l'apparition de taches rouges. Elles apparaissent petites au début, comme une tache rouge qui démange légèrement. Lorsqu'elle est grattée ou enlevé, la couche supérieure de peau laisse une peau sèche et rouge avec des zones blanches marquant l'endroit où les flocons de peau sèche s'arrêtent et commencent. Dans les semaines qui suivent, les taches peuvent atteindre jusqu'à deux centimètres et demi de diamètre. Certaines des plus grandes peuvent former une zone pâle légèrement jaune au centre.
-Le psoriasis en gouttes peut survenir sur n'importe quelle partie du corps, en particulier les jambes, les bras, le torse, les paupières, le dos, les fesses, le maillot et le cou. Le nombre de lésions peut varier de 5 jusqu'à plus de 100[5]. Généralement, les parties du corps les plus touchées sont les bras, les jambes, le dos et le torse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En règle générale, le psoriasis en gouttes éclate après une infection de la gorge ou une angine streptococcique. Au départ, lorsque l'infection de la gorge s'est dissipée, la personne peut se sentir bien pendant plusieurs semaines avant de remarquer l'apparition de taches rouges. Elles apparaissent petites au début, comme une tache rouge qui démange légèrement. Lorsqu'elle est grattée ou enlevé, la couche supérieure de peau laisse une peau sèche et rouge avec des zones blanches marquant l'endroit où les flocons de peau sèche s'arrêtent et commencent. Dans les semaines qui suivent, les taches peuvent atteindre jusqu'à deux centimètres et demi de diamètre. Certaines des plus grandes peuvent former une zone pâle légèrement jaune au centre.
+Le psoriasis en gouttes peut survenir sur n'importe quelle partie du corps, en particulier les jambes, les bras, le torse, les paupières, le dos, les fesses, le maillot et le cou. Le nombre de lésions peut varier de 5 jusqu'à plus de 100. Généralement, les parties du corps les plus touchées sont les bras, les jambes, le dos et le torse.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des facteurs génétiques et environnementaux peuvent influencer l'apparition d'un psoriasis en gouttes. Les antigènes leucocytaires humains, en particulier ceux du groupe HLA-C, sont associés au trouble cutané[6]. L'infection de streptocoques bêta-hémolytiques est le principal facteur environnemental. La voie d'infection typique est le système respiratoire supérieur. Rarement, elle est également causée par une infection cutanée entourant l'anus (dermatite streptococcique périanale)[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des facteurs génétiques et environnementaux peuvent influencer l'apparition d'un psoriasis en gouttes. Les antigènes leucocytaires humains, en particulier ceux du groupe HLA-C, sont associés au trouble cutané. L'infection de streptocoques bêta-hémolytiques est le principal facteur environnemental. La voie d'infection typique est le système respiratoire supérieur. Rarement, elle est également causée par une infection cutanée entourant l'anus (dermatite streptococcique périanale),.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le psoriasis en gouttes peut généralement être diagnostiqué par un unique examen clinique[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le psoriasis en gouttes peut généralement être diagnostiqué par un unique examen clinique.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les traitements utilisés pour le psoriasis en plaques peuvent également être utilisés pour le psoriasis en gouttes. Peu d'études se sont spécifiquement concentrées sur la prise en charge du psoriasis en gouttes, il n'existe donc actuellement aucune ligne directrice ferme pour une prise en charge différente de celle du psoriasis en plaques[10]. Les médicaments immunosuppresseurs qui inhibent l'activation des lymphocytes T ont été efficaces dans le traitement des cas graves de psoriasis en gouttes chronique. En raison du rôle que joue l'infection streptococcique dans le développement du psoriasis en gouttes, les antibiotiques systémiques ont été pris en compte comme une potentielle option de traitement. Il existe des preuves incertaines quant à l'efficacité et à l'innocuité des antibiotiques systémiques ou de l'amygdalectomie dans le traitement de la maladie[11]. La maladie disparaît souvent d'elle-même en quelques semaines à quelques mois, et seulement environ un tiers des patients développeront un forme chronique (en plaque)[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les traitements utilisés pour le psoriasis en plaques peuvent également être utilisés pour le psoriasis en gouttes. Peu d'études se sont spécifiquement concentrées sur la prise en charge du psoriasis en gouttes, il n'existe donc actuellement aucune ligne directrice ferme pour une prise en charge différente de celle du psoriasis en plaques. Les médicaments immunosuppresseurs qui inhibent l'activation des lymphocytes T ont été efficaces dans le traitement des cas graves de psoriasis en gouttes chronique. En raison du rôle que joue l'infection streptococcique dans le développement du psoriasis en gouttes, les antibiotiques systémiques ont été pris en compte comme une potentielle option de traitement. Il existe des preuves incertaines quant à l'efficacité et à l'innocuité des antibiotiques systémiques ou de l'amygdalectomie dans le traitement de la maladie. La maladie disparaît souvent d'elle-même en quelques semaines à quelques mois, et seulement environ un tiers des patients développeront un forme chronique (en plaque).
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le psoriasis en gouttes représente environ 2 % des cas de psoriasis[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le psoriasis en gouttes représente environ 2 % des cas de psoriasis.
 </t>
         </is>
       </c>
